--- a/image/substancesourcematerial.xlsx
+++ b/image/substancesourcematerial.xlsx
@@ -896,42 +896,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.5546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.53125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="60.5078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="61.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/substancesourcematerial.xlsx
+++ b/image/substancesourcematerial.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="240">
   <si>
     <t>Path</t>
   </si>
@@ -156,7 +156,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -371,10 +371,6 @@
   </si>
   <si>
     <t>SubstanceSourceMaterial.organismName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>The organism accepted Scientific name shall be provided based on the organism taxonomy</t>
@@ -896,42 +892,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.53125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.5546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="61.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="60.5078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2385,13 +2381,13 @@
         <v>46</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2462,7 +2458,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2488,10 +2484,10 @@
         <v>111</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2542,7 +2538,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2562,7 +2558,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2585,13 +2581,13 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2642,7 +2638,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2662,7 +2658,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2688,10 +2684,10 @@
         <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2742,7 +2738,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2762,7 +2758,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2785,13 +2781,13 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2842,7 +2838,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
@@ -2862,7 +2858,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2888,10 +2884,10 @@
         <v>101</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2942,7 +2938,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2962,7 +2958,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2985,13 +2981,13 @@
         <v>46</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3042,7 +3038,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
@@ -3054,7 +3050,7 @@
         <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>37</v>
@@ -3062,7 +3058,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3085,13 +3081,13 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3142,27 +3138,27 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3191,7 +3187,7 @@
         <v>91</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>93</v>
@@ -3244,7 +3240,7 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>38</v>
@@ -3259,16 +3255,16 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3290,10 +3286,10 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>93</v>
@@ -3348,7 +3344,7 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
@@ -3368,7 +3364,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3391,13 +3387,13 @@
         <v>46</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3448,7 +3444,7 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
@@ -3468,7 +3464,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3494,10 +3490,10 @@
         <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3548,7 +3544,7 @@
         <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>38</v>
@@ -3568,7 +3564,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3591,13 +3587,13 @@
         <v>46</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3648,7 +3644,7 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>38</v>
@@ -3660,7 +3656,7 @@
         <v>37</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>37</v>
@@ -3668,7 +3664,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3691,13 +3687,13 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3748,27 +3744,27 @@
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>142</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3797,7 +3793,7 @@
         <v>91</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>93</v>
@@ -3850,7 +3846,7 @@
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>38</v>
@@ -3865,16 +3861,16 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -3896,10 +3892,10 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>93</v>
@@ -3954,7 +3950,7 @@
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>38</v>
@@ -3974,7 +3970,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4000,10 +3996,10 @@
         <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4054,7 +4050,7 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>38</v>
@@ -4074,7 +4070,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4100,10 +4096,10 @@
         <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4154,7 +4150,7 @@
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>38</v>
@@ -4174,7 +4170,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4200,10 +4196,10 @@
         <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4254,7 +4250,7 @@
         <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>38</v>
@@ -4274,7 +4270,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4300,10 +4296,10 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4354,7 +4350,7 @@
         <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>38</v>
@@ -4374,7 +4370,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4397,13 +4393,13 @@
         <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4454,7 +4450,7 @@
         <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>38</v>
@@ -4474,7 +4470,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4497,13 +4493,13 @@
         <v>46</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4554,7 +4550,7 @@
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>38</v>
@@ -4566,7 +4562,7 @@
         <v>37</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>37</v>
@@ -4574,7 +4570,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4597,13 +4593,13 @@
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4654,27 +4650,27 @@
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>142</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4703,7 +4699,7 @@
         <v>91</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>93</v>
@@ -4756,7 +4752,7 @@
         <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>38</v>
@@ -4771,16 +4767,16 @@
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -4802,10 +4798,10 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>93</v>
@@ -4860,7 +4856,7 @@
         <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>38</v>
@@ -4880,7 +4876,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4906,10 +4902,10 @@
         <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4960,7 +4956,7 @@
         <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>38</v>
@@ -4980,7 +4976,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5003,13 +4999,13 @@
         <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5060,7 +5056,7 @@
         <v>37</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>38</v>
@@ -5080,7 +5076,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5103,13 +5099,13 @@
         <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5160,7 +5156,7 @@
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>38</v>
@@ -5172,7 +5168,7 @@
         <v>37</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>37</v>
@@ -5180,7 +5176,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5203,13 +5199,13 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5260,27 +5256,27 @@
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>142</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5309,7 +5305,7 @@
         <v>91</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>93</v>
@@ -5362,7 +5358,7 @@
         <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>38</v>
@@ -5377,16 +5373,16 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5408,10 +5404,10 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>93</v>
@@ -5466,7 +5462,7 @@
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>38</v>
@@ -5486,7 +5482,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5509,13 +5505,13 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5566,7 +5562,7 @@
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>38</v>
@@ -5586,7 +5582,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5609,13 +5605,13 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5666,7 +5662,7 @@
         <v>37</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>38</v>
@@ -5686,7 +5682,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5709,13 +5705,13 @@
         <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5766,7 +5762,7 @@
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>38</v>
@@ -5786,7 +5782,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5809,13 +5805,13 @@
         <v>46</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5866,7 +5862,7 @@
         <v>37</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>38</v>
@@ -5886,7 +5882,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -5912,10 +5908,10 @@
         <v>101</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -5966,7 +5962,7 @@
         <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>38</v>
@@ -5986,7 +5982,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6009,13 +6005,13 @@
         <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6066,7 +6062,7 @@
         <v>37</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>38</v>
@@ -6078,7 +6074,7 @@
         <v>37</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>37</v>
@@ -6086,7 +6082,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6109,13 +6105,13 @@
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6166,27 +6162,27 @@
         <v>37</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>142</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6215,7 +6211,7 @@
         <v>91</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>93</v>
@@ -6268,7 +6264,7 @@
         <v>37</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>38</v>
@@ -6283,16 +6279,16 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -6314,10 +6310,10 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>93</v>
@@ -6372,7 +6368,7 @@
         <v>37</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>38</v>
@@ -6392,7 +6388,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6418,10 +6414,10 @@
         <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6472,7 +6468,7 @@
         <v>37</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>38</v>
@@ -6492,7 +6488,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6518,10 +6514,10 @@
         <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6572,7 +6568,7 @@
         <v>37</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>38</v>
@@ -6592,7 +6588,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6618,10 +6614,10 @@
         <v>101</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6672,7 +6668,7 @@
         <v>37</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>38</v>
@@ -6692,7 +6688,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6718,10 +6714,10 @@
         <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -6772,7 +6768,7 @@
         <v>37</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>38</v>
@@ -6792,7 +6788,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6815,13 +6811,13 @@
         <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6872,7 +6868,7 @@
         <v>37</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>38</v>
@@ -6884,7 +6880,7 @@
         <v>37</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>37</v>
@@ -6892,7 +6888,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -6915,13 +6911,13 @@
         <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6972,27 +6968,27 @@
         <v>37</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>142</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7021,7 +7017,7 @@
         <v>91</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>93</v>
@@ -7074,7 +7070,7 @@
         <v>37</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>38</v>
@@ -7089,16 +7085,16 @@
         <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7120,10 +7116,10 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>93</v>
@@ -7178,7 +7174,7 @@
         <v>37</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>38</v>
@@ -7198,7 +7194,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7224,10 +7220,10 @@
         <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7278,7 +7274,7 @@
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>38</v>
@@ -7298,7 +7294,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7324,10 +7320,10 @@
         <v>101</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7378,7 +7374,7 @@
         <v>37</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>38</v>
